--- a/Persona5Royal_material.xlsx
+++ b/Persona5Royal_material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source_code\private\PersonaComputer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ED2C2D-3D3C-4C95-AD0C-441495D15DC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2E5754-F217-4714-84B4-F74A4F88D67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,9 +878,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>集体断头台</t>
-  </si>
-  <si>
     <t>素材1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -891,6 +888,9 @@
   <si>
     <t>合成结果</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体合成</t>
   </si>
 </sst>
 </file>
@@ -3376,7 +3376,7 @@
         <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>15</v>
@@ -4533,7 +4533,7 @@
         <v>114</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>17</v>
@@ -4785,7 +4785,7 @@
         <v>120</v>
       </c>
       <c r="D82" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>17</v>
@@ -5488,7 +5488,7 @@
         <v>139</v>
       </c>
       <c r="D99" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>15</v>
@@ -6765,7 +6765,7 @@
         <v>170</v>
       </c>
       <c r="D130" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>15</v>
@@ -7058,7 +7058,7 @@
         <v>177</v>
       </c>
       <c r="D137" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>15</v>
@@ -7840,7 +7840,7 @@
         <v>196</v>
       </c>
       <c r="D156" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>15</v>
@@ -8133,7 +8133,7 @@
         <v>203</v>
       </c>
       <c r="D163" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>15</v>
@@ -8587,7 +8587,7 @@
         <v>214</v>
       </c>
       <c r="D174" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>15</v>
@@ -8713,7 +8713,7 @@
         <v>217</v>
       </c>
       <c r="D177" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>15</v>
@@ -9290,7 +9290,7 @@
         <v>231</v>
       </c>
       <c r="D191" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>15</v>
@@ -9621,7 +9621,7 @@
         <v>239</v>
       </c>
       <c r="D199" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>17</v>
@@ -9706,7 +9706,7 @@
         <v>242</v>
       </c>
       <c r="D201" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>15</v>
@@ -10570,7 +10570,7 @@
         <v>263</v>
       </c>
       <c r="D222" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>15</v>
@@ -10614,7 +10614,7 @@
         <v>264</v>
       </c>
       <c r="D223" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>39</v>
@@ -10658,7 +10658,7 @@
         <v>265</v>
       </c>
       <c r="D224" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>17</v>
@@ -10702,7 +10702,7 @@
         <v>266</v>
       </c>
       <c r="D225" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>17</v>
@@ -10746,7 +10746,7 @@
         <v>267</v>
       </c>
       <c r="D226" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>15</v>
@@ -10790,7 +10790,7 @@
         <v>268</v>
       </c>
       <c r="D227" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>17</v>
@@ -10957,7 +10957,7 @@
         <v>272</v>
       </c>
       <c r="D231" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>39</v>
@@ -11042,7 +11042,7 @@
         <v>274</v>
       </c>
       <c r="D233" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>17</v>
@@ -13640,13 +13640,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>282</v>
-      </c>
-      <c r="C1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
